--- a/Assets/levelexp.xlsx
+++ b/Assets/levelexp.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,8 +382,8 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <f>EXP(A1)*100 + 1000</f>
-        <v>1271.8281828459044</v>
+        <f>EXP(A1)*10 + 1000</f>
+        <v>1027.1828182845904</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -394,8 +394,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B30" si="0">EXP(A2)*100 + 1000</f>
-        <v>1738.905609893065</v>
+        <f t="shared" ref="B2:B30" si="0">EXP(A2)*10 + 1000</f>
+        <v>1073.8905609893066</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -407,7 +407,7 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" si="0"/>
-        <v>3008.5536923187665</v>
+        <v>1200.8553692318767</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -419,7 +419,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>6459.8150033144238</v>
+        <v>1545.9815003314425</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -431,7 +431,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>15841.315910257659</v>
+        <v>2484.1315910257663</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -443,7 +443,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>41342.879349273513</v>
+        <v>5034.2879349273517</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -452,7 +452,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>110663.31584284586</v>
+        <v>11966.331584284584</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>299095.79870417283</v>
+        <v>30809.579870417285</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>811308.39275753847</v>
+        <v>82030.839275753839</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>2203646.5794806718</v>
+        <v>221264.65794806718</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>5988414.1715197815</v>
+        <v>599741.41715197812</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>16276479.141900392</v>
+        <v>1628547.914190039</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,7 +506,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>44242339.200892046</v>
+        <v>4425133.9200892048</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -515,7 +515,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>120261428.41647768</v>
+        <v>12027042.841647768</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,7 +524,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>326902737.24721104</v>
+        <v>32691173.724721108</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>888612052.05078721</v>
+        <v>88862105.205078721</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>2415496275.3575301</v>
+        <v>241550527.53575298</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>6565997913.7330513</v>
+        <v>656600691.37330508</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>17848231096.318726</v>
+        <v>1784824009.6318724</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>48516520540.979027</v>
+        <v>4851652954.0979023</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>131881574448.32146</v>
+        <v>13188158344.832146</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>358491285613.15918</v>
+        <v>35849129461.315918</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -596,7 +596,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>974480345624.89038</v>
+        <v>97448035462.489029</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -605,7 +605,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>2648912213984.3472</v>
+        <v>264891222298.43472</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +614,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>7200489934738.5879</v>
+        <v>720048994373.85876</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>19572960943883.879</v>
+        <v>1957296095288.3877</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>53204824061179.867</v>
+        <v>5320482407017.9863</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>144625706430147.5</v>
+        <v>14462570643914.75</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>393133429715404.19</v>
+        <v>39313342972440.422</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +659,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>1068647458153446.2</v>
+        <v>106864745816244.62</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/levelexp.xlsx
+++ b/Assets/levelexp.xlsx
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,8 +382,8 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <f>EXP(A1)*10 + 1000</f>
-        <v>1027.1828182845904</v>
+        <f>(A1-EXP(-A1))*1500</f>
+        <v>948.18083824283644</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -394,8 +394,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B30" si="0">EXP(A2)*10 + 1000</f>
-        <v>1073.8905609893066</v>
+        <f>(A2-EXP(-A2))*1500</f>
+        <v>2796.997075145081</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -406,8 +406,8 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" si="0"/>
-        <v>1200.8553692318767</v>
+        <f t="shared" ref="B2:B30" si="0">(A3-EXP(-A3))*1500</f>
+        <v>4425.3193974482037</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -419,7 +419,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1545.9815003314425</v>
+        <v>5972.526541666899</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -431,7 +431,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>2484.1315910257663</v>
+        <v>7489.8930795013712</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -443,7 +443,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>5034.2879349273517</v>
+        <v>8996.2818717350001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -452,7 +452,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>11966.331584284584</v>
+        <v>10498.632177051668</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>30809.579870417285</v>
+        <v>11999.496806058145</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>82030.839275753839</v>
+        <v>13499.81488529387</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>221264.65794806718</v>
+        <v>14999.931900105357</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>599741.41715197812</v>
+        <v>16499.974947448816</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>1628547.914190039</v>
+        <v>17999.990783681471</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,7 +506,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>4425133.9200892048</v>
+        <v>19499.996609505892</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -515,7 +515,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>12027042.841647768</v>
+        <v>20999.998752706921</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,7 +524,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>32691173.724721108</v>
+        <v>22499.999541146521</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>88862105.205078721</v>
+        <v>23999.999831197238</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>241550527.53575298</v>
+        <v>25499.999937900931</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>656600691.37330508</v>
+        <v>26999.999977155032</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>1784824009.6318724</v>
+        <v>28499.999991595807</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>4851652954.0979023</v>
+        <v>29999.999996908271</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>13188158344.832146</v>
+        <v>31499.999998862615</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>35849129461.315918</v>
+        <v>32999.999999581574</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -596,7 +596,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>97448035462.489029</v>
+        <v>34499.99999984607</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -605,7 +605,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>264891222298.43472</v>
+        <v>35999.999999943371</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +614,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>720048994373.85876</v>
+        <v>37499.999999979169</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>1957296095288.3877</v>
+        <v>38999.999999992338</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>5320482407017.9863</v>
+        <v>40499.999999997184</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>14462570643914.75</v>
+        <v>41999.99999999896</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>39313342972440.422</v>
+        <v>43499.999999999614</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +659,16 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>106864745816244.62</v>
+        <v>44999.999999999862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <f>SUM(B1:B30)</f>
+        <v>696627.0349396962</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/levelexp.xlsx
+++ b/Assets/levelexp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>2min</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t xml:space="preserve"> gameover</t>
+  </si>
+  <si>
+    <t>50gems/10min</t>
   </si>
 </sst>
 </file>
@@ -365,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -377,163 +380,178 @@
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <f>(A1-EXP(-A1))*1500</f>
-        <v>948.18083824283644</v>
+        <f>(A1-EXP(-A1))*1200</f>
+        <v>758.54467059426918</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <f>(A2-EXP(-A2))*1500</f>
-        <v>2796.997075145081</v>
+        <f t="shared" ref="B2:B30" si="0">(A2-EXP(-A2))*1200</f>
+        <v>2237.5976601160646</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B2:B30" si="0">(A3-EXP(-A3))*1500</f>
-        <v>4425.3193974482037</v>
+        <f t="shared" si="0"/>
+        <v>3540.2555179585629</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>5972.526541666899</v>
+        <v>4778.0212333335194</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>7489.8930795013712</v>
+        <v>5991.9144636010969</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>8996.2818717350001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7197.0254973880001</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>10498.632177051668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8398.9057416413343</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>11999.496806058145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9599.5974448465167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>13499.81488529387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10799.851908235096</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>14999.931900105357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11999.945520084286</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>16499.974947448816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13199.979957959051</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>17999.990783681471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14399.992626945177</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>19499.996609505892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15599.997287604712</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>20999.998752706921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16799.999002165536</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>22499.999541146521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17999.999632917217</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>23999.999831197238</v>
+        <v>19199.99986495779</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +560,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>25499.999937900931</v>
+        <v>20399.999950320747</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -551,7 +569,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>26999.999977155032</v>
+        <v>21599.999981724024</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,7 +578,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>28499.999991595807</v>
+        <v>22799.999993276644</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -569,7 +587,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>29999.999996908271</v>
+        <v>23999.999997526615</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -578,7 +596,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>31499.999998862615</v>
+        <v>25199.999999090094</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +605,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>32999.999999581574</v>
+        <v>26399.999999665262</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -596,7 +614,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>34499.99999984607</v>
+        <v>27599.999999876854</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -605,7 +623,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>35999.999999943371</v>
+        <v>28799.9999999547</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,7 +632,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>37499.999999979169</v>
+        <v>29999.999999983334</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -623,7 +641,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>38999.999999992338</v>
+        <v>31199.99999999387</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,7 +650,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>40499.999999997184</v>
+        <v>32399.999999997744</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -641,7 +659,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>41999.99999999896</v>
+        <v>33599.999999999171</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +668,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>43499.999999999614</v>
+        <v>34799.999999999694</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +677,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>44999.999999999862</v>
+        <v>35999.999999999891</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -668,7 +686,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <f>SUM(B1:B30)</f>
-        <v>696627.0349396962</v>
+        <v>557301.62795175693</v>
       </c>
     </row>
   </sheetData>
